--- a/src/list.xlsx
+++ b/src/list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chaotaphy/Documents/workspace/lottery/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chaotaphy/Documents/workspace/lottery/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CF7922-FBA5-5C4D-A172-570F3C27F548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F289865D-7FF4-4C4D-A228-43AA1813F6D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="24820" windowHeight="14920" xr2:uid="{8170FF31-B9CC-2147-8E4D-D3244D1EF893}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{8170FF31-B9CC-2147-8E4D-D3244D1EF893}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -35,37 +35,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,56 +438,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE81B39E-4123-8743-95C4-08D970A3CF3B}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+      <c r="B6">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>